--- a/ConceptMap-R5-FormularyItem-elements-for-R4.xlsx
+++ b/ConceptMap-R5-FormularyItem-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.8823197-06:00</t>
+    <t>2026-02-09T22:05:43.893616-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-FormularyItem-elements-for-R4.xlsx
+++ b/ConceptMap-R5-FormularyItem-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.893616-06:00</t>
+    <t>2026-02-17T14:42:27.2800876-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FormularyItem:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FormularyItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-FormularyItem.code</t>
   </si>
   <si>
     <t>FormularyItem.status</t>
@@ -183,7 +183,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FormularyItem:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-FormularyItem:http://hl7.org/fhir/5.0/StructureDefinition/extension-FormularyItem.status</t>
   </si>
 </sst>
 </file>
